--- a/code/results_cells/results_cec2017_50.xlsx
+++ b/code/results_cells/results_cec2017_50.xlsx
@@ -582,94 +582,94 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>5722114200</v>
+        <v>22309228000</v>
       </c>
       <c r="E2">
-        <v>1.912342616E+30</v>
+        <v>3.53961263132E+38</v>
       </c>
       <c r="F2">
-        <v>93744.63499999998</v>
+        <v>106263.581</v>
       </c>
       <c r="G2">
-        <v>765.8222499999999</v>
+        <v>4349.4019</v>
       </c>
       <c r="H2">
-        <v>222.00397</v>
+        <v>314.11058</v>
       </c>
       <c r="I2">
-        <v>27.958204</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J2">
-        <v>427.82096</v>
+        <v>794.42444</v>
       </c>
       <c r="K2">
-        <v>215.46565</v>
+        <v>314.27459</v>
       </c>
       <c r="L2">
-        <v>3614.834600000001</v>
+        <v>9681.8878</v>
       </c>
       <c r="M2">
-        <v>5474.687899999999</v>
+        <v>6569.285400000001</v>
       </c>
       <c r="N2">
-        <v>1848.5759</v>
+        <v>5113.8669</v>
       </c>
       <c r="O2">
-        <v>703980750</v>
+        <v>3888985200</v>
       </c>
       <c r="P2">
-        <v>464629880</v>
+        <v>2236673300</v>
       </c>
       <c r="Q2">
-        <v>760933.49</v>
+        <v>424774.83</v>
       </c>
       <c r="R2">
-        <v>70270309</v>
+        <v>198004640</v>
       </c>
       <c r="S2">
-        <v>1787.5388</v>
+        <v>2629.1417</v>
       </c>
       <c r="T2">
-        <v>648.61319</v>
+        <v>1276.90145</v>
       </c>
       <c r="U2">
-        <v>3090770.7</v>
+        <v>10479541.2</v>
       </c>
       <c r="V2">
-        <v>101194733</v>
+        <v>297776450</v>
       </c>
       <c r="W2">
-        <v>691.27122</v>
+        <v>830.46919</v>
       </c>
       <c r="X2">
-        <v>382.02964</v>
+        <v>503.5853</v>
       </c>
       <c r="Y2">
-        <v>1229.58717</v>
+        <v>3736.8412</v>
       </c>
       <c r="Z2">
-        <v>590.49127</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA2">
-        <v>719.2615</v>
+        <v>891.4318999999999</v>
       </c>
       <c r="AB2">
-        <v>750.2533799999999</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC2">
-        <v>2636.7253</v>
+        <v>5641.4962</v>
       </c>
       <c r="AD2">
-        <v>619.50227</v>
+        <v>891.62003</v>
       </c>
       <c r="AE2">
-        <v>940.3656099999998</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF2">
-        <v>1383.4523</v>
+        <v>2481.7286</v>
       </c>
       <c r="AG2">
-        <v>42454594</v>
+        <v>233754740</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -683,94 +683,94 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>31664884000</v>
+        <v>61832684000</v>
       </c>
       <c r="E3">
-        <v>3.394430740159195E+68</v>
+        <v>2.539807873726276E+70</v>
       </c>
       <c r="F3">
-        <v>301273.77</v>
+        <v>312247.34</v>
       </c>
       <c r="G3">
-        <v>4882.3996</v>
+        <v>9930.9758</v>
       </c>
       <c r="H3">
-        <v>535.9288</v>
+        <v>594.45108</v>
       </c>
       <c r="I3">
-        <v>47.06215300000001</v>
+        <v>64.703114</v>
       </c>
       <c r="J3">
-        <v>1211.10753</v>
+        <v>1541.7957</v>
       </c>
       <c r="K3">
-        <v>560.05996</v>
+        <v>617.0286100000001</v>
       </c>
       <c r="L3">
-        <v>26117.858</v>
+        <v>31305.50399999999</v>
       </c>
       <c r="M3">
-        <v>11051.674</v>
+        <v>11543.937</v>
       </c>
       <c r="N3">
-        <v>25153.303</v>
+        <v>24534.087</v>
       </c>
       <c r="O3">
-        <v>13553589900</v>
+        <v>21305578000</v>
       </c>
       <c r="P3">
-        <v>8054534500</v>
+        <v>17351036000</v>
       </c>
       <c r="Q3">
-        <v>30471245</v>
+        <v>58372952</v>
       </c>
       <c r="R3">
-        <v>5046986400</v>
+        <v>7801334300</v>
       </c>
       <c r="S3">
-        <v>4360.9142</v>
+        <v>5378.8019</v>
       </c>
       <c r="T3">
-        <v>8459.2709</v>
+        <v>12674.7308</v>
       </c>
       <c r="U3">
-        <v>101726067</v>
+        <v>123786497</v>
       </c>
       <c r="V3">
-        <v>1472574740</v>
+        <v>2395572300</v>
       </c>
       <c r="W3">
-        <v>2280.7265</v>
+        <v>2433.6993</v>
       </c>
       <c r="X3">
-        <v>748.3813000000001</v>
+        <v>818.2331399999999</v>
       </c>
       <c r="Y3">
-        <v>11495.4578</v>
+        <v>12419.86</v>
       </c>
       <c r="Z3">
-        <v>1139.1268</v>
+        <v>1376.0998</v>
       </c>
       <c r="AA3">
-        <v>1306.9976</v>
+        <v>1445.4783</v>
       </c>
       <c r="AB3">
-        <v>4688.0601</v>
+        <v>7634.4557</v>
       </c>
       <c r="AC3">
-        <v>8474.696100000001</v>
+        <v>10958.943</v>
       </c>
       <c r="AD3">
-        <v>1597.1193</v>
+        <v>1942.7449</v>
       </c>
       <c r="AE3">
-        <v>4271.1656</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF3">
-        <v>4239.5325</v>
+        <v>8620.6631</v>
       </c>
       <c r="AG3">
-        <v>1677566770</v>
+        <v>2745146100</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -784,94 +784,94 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>26818190000</v>
+        <v>61164894000</v>
       </c>
       <c r="E4">
-        <v>8.9745398373194E+66</v>
+        <v>1.735670893726276E+70</v>
       </c>
       <c r="F4">
-        <v>282197.91</v>
+        <v>302157.85</v>
       </c>
       <c r="G4">
-        <v>4179.6464</v>
+        <v>9930.9758</v>
       </c>
       <c r="H4">
-        <v>510.18457</v>
+        <v>593.82523</v>
       </c>
       <c r="I4">
-        <v>42.102477</v>
+        <v>64.703114</v>
       </c>
       <c r="J4">
-        <v>1130.15693</v>
+        <v>1541.7957</v>
       </c>
       <c r="K4">
-        <v>533.36994</v>
+        <v>617.0286100000001</v>
       </c>
       <c r="L4">
-        <v>22936.515</v>
+        <v>31305.50399999999</v>
       </c>
       <c r="M4">
-        <v>11013.277</v>
+        <v>11526.399</v>
       </c>
       <c r="N4">
-        <v>22645.658</v>
+        <v>23602.371</v>
       </c>
       <c r="O4">
-        <v>11346731700</v>
+        <v>21305578000</v>
       </c>
       <c r="P4">
-        <v>6387404000</v>
+        <v>15043562000</v>
       </c>
       <c r="Q4">
-        <v>24152843.4</v>
+        <v>39905969</v>
       </c>
       <c r="R4">
-        <v>3429897090</v>
+        <v>7186263100</v>
       </c>
       <c r="S4">
-        <v>4222.7002</v>
+        <v>5332.2102</v>
       </c>
       <c r="T4">
-        <v>5181.5279</v>
+        <v>10413.9687</v>
       </c>
       <c r="U4">
-        <v>68501112</v>
+        <v>104265470</v>
       </c>
       <c r="V4">
-        <v>1170314100</v>
+        <v>2107080800</v>
       </c>
       <c r="W4">
-        <v>2163.6744</v>
+        <v>2334.780600000001</v>
       </c>
       <c r="X4">
-        <v>703.4120999999999</v>
+        <v>818.2331399999999</v>
       </c>
       <c r="Y4">
-        <v>10903.0043</v>
+        <v>12413.936</v>
       </c>
       <c r="Z4">
-        <v>1095.993</v>
+        <v>1376.0998</v>
       </c>
       <c r="AA4">
-        <v>1292.2716</v>
+        <v>1445.4783</v>
       </c>
       <c r="AB4">
-        <v>3844.898</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC4">
-        <v>8088.164999999999</v>
+        <v>10923.619</v>
       </c>
       <c r="AD4">
-        <v>1537.2645</v>
+        <v>1935.2311</v>
       </c>
       <c r="AE4">
-        <v>4135.1512</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF4">
-        <v>4235.6447</v>
+        <v>8473.322099999999</v>
       </c>
       <c r="AG4">
-        <v>1496444690</v>
+        <v>2745146100</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -885,94 +885,94 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>24540350000</v>
+        <v>61164894000</v>
       </c>
       <c r="E5">
-        <v>7.096132533940001E+64</v>
+        <v>1.735670893726276E+70</v>
       </c>
       <c r="F5">
-        <v>276020.35</v>
+        <v>302043.21</v>
       </c>
       <c r="G5">
-        <v>4179.6464</v>
+        <v>9930.9758</v>
       </c>
       <c r="H5">
-        <v>497.1514999999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I5">
-        <v>41.926574</v>
+        <v>64.703114</v>
       </c>
       <c r="J5">
-        <v>1100.10359</v>
+        <v>1541.7957</v>
       </c>
       <c r="K5">
-        <v>524.7107600000001</v>
+        <v>617.0286100000001</v>
       </c>
       <c r="L5">
-        <v>22272.933</v>
+        <v>31305.50399999999</v>
       </c>
       <c r="M5">
-        <v>10729.138</v>
+        <v>11526.399</v>
       </c>
       <c r="N5">
-        <v>20117.68</v>
+        <v>22397.577</v>
       </c>
       <c r="O5">
-        <v>10304102900</v>
+        <v>21305578000</v>
       </c>
       <c r="P5">
-        <v>6101764600</v>
+        <v>14842655000</v>
       </c>
       <c r="Q5">
-        <v>20457379.4</v>
+        <v>34296647</v>
       </c>
       <c r="R5">
-        <v>2618561590</v>
+        <v>6567645400</v>
       </c>
       <c r="S5">
-        <v>4100.877899999999</v>
+        <v>5332.2102</v>
       </c>
       <c r="T5">
-        <v>4342.3526</v>
+        <v>8926.409300000001</v>
       </c>
       <c r="U5">
-        <v>49395025</v>
+        <v>102977960</v>
       </c>
       <c r="V5">
-        <v>1012080800</v>
+        <v>2036669700</v>
       </c>
       <c r="W5">
-        <v>2111.638899999999</v>
+        <v>2328.492</v>
       </c>
       <c r="X5">
-        <v>701.1531699999999</v>
+        <v>818.2331399999999</v>
       </c>
       <c r="Y5">
-        <v>10708.8013</v>
+        <v>12413.936</v>
       </c>
       <c r="Z5">
-        <v>1076.148</v>
+        <v>1376.0998</v>
       </c>
       <c r="AA5">
-        <v>1270.8219</v>
+        <v>1445.4783</v>
       </c>
       <c r="AB5">
-        <v>3783.2087</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC5">
-        <v>7953.9132</v>
+        <v>10923.619</v>
       </c>
       <c r="AD5">
-        <v>1436.4801</v>
+        <v>1935.2311</v>
       </c>
       <c r="AE5">
-        <v>3910.728700000001</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF5">
-        <v>4085.7538</v>
+        <v>8473.322099999999</v>
       </c>
       <c r="AG5">
-        <v>1397509090</v>
+        <v>2745146100</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -986,94 +986,94 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>21765052000</v>
+        <v>61145912000</v>
       </c>
       <c r="E6">
-        <v>6.3576853394E+63</v>
+        <v>3.91076193726276E+69</v>
       </c>
       <c r="F6">
-        <v>262961.04</v>
+        <v>287361.63</v>
       </c>
       <c r="G6">
-        <v>3948.596800000001</v>
+        <v>9930.9758</v>
       </c>
       <c r="H6">
-        <v>494.81497</v>
+        <v>593.82523</v>
       </c>
       <c r="I6">
-        <v>40.425419</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J6">
-        <v>1042.49507</v>
+        <v>1541.7957</v>
       </c>
       <c r="K6">
-        <v>502.52086</v>
+        <v>616.49765</v>
       </c>
       <c r="L6">
-        <v>20929.689</v>
+        <v>30685.00699999999</v>
       </c>
       <c r="M6">
-        <v>10642.771</v>
+        <v>11466.894</v>
       </c>
       <c r="N6">
-        <v>18300.6716</v>
+        <v>22397.577</v>
       </c>
       <c r="O6">
-        <v>9186927600</v>
+        <v>20919651000</v>
       </c>
       <c r="P6">
-        <v>5423306100</v>
+        <v>13997936000</v>
       </c>
       <c r="Q6">
-        <v>16975756</v>
+        <v>28904217.4</v>
       </c>
       <c r="R6">
-        <v>2322794930</v>
+        <v>6228827700</v>
       </c>
       <c r="S6">
-        <v>3938.909699999999</v>
+        <v>5280.8992</v>
       </c>
       <c r="T6">
-        <v>3597.6336</v>
+        <v>7279.2826</v>
       </c>
       <c r="U6">
-        <v>48506585.6</v>
+        <v>88117521</v>
       </c>
       <c r="V6">
-        <v>856121600</v>
+        <v>1921979500</v>
       </c>
       <c r="W6">
-        <v>1996.8634</v>
+        <v>2293.4379</v>
       </c>
       <c r="X6">
-        <v>689.39903</v>
+        <v>818.2331399999999</v>
       </c>
       <c r="Y6">
-        <v>10469.2133</v>
+        <v>12359.516</v>
       </c>
       <c r="Z6">
-        <v>1052.8843</v>
+        <v>1356.7445</v>
       </c>
       <c r="AA6">
-        <v>1267.7022</v>
+        <v>1427.2043</v>
       </c>
       <c r="AB6">
-        <v>3542.2616</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC6">
-        <v>7446.602699999999</v>
+        <v>10648.0085</v>
       </c>
       <c r="AD6">
-        <v>1360.9119</v>
+        <v>1899.1925</v>
       </c>
       <c r="AE6">
-        <v>3813.265900000001</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF6">
-        <v>3869.670800000001</v>
+        <v>8316.108099999999</v>
       </c>
       <c r="AG6">
-        <v>1057774840</v>
+        <v>2685968000</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1087,94 +1087,94 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>20585890000</v>
+        <v>61145912000</v>
       </c>
       <c r="E7">
-        <v>7.084929640863999E+61</v>
+        <v>3.91076193726276E+69</v>
       </c>
       <c r="F7">
-        <v>230307.36</v>
+        <v>278451.26</v>
       </c>
       <c r="G7">
-        <v>3632.702499999999</v>
+        <v>9930.9758</v>
       </c>
       <c r="H7">
-        <v>472.0843799999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I7">
-        <v>37.828923</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J7">
-        <v>975.3192300000001</v>
+        <v>1541.7957</v>
       </c>
       <c r="K7">
-        <v>485.09253</v>
+        <v>616.49765</v>
       </c>
       <c r="L7">
-        <v>17291.329</v>
+        <v>30685.00699999999</v>
       </c>
       <c r="M7">
-        <v>10467.482</v>
+        <v>11466.894</v>
       </c>
       <c r="N7">
-        <v>15735.2296</v>
+        <v>22194.425</v>
       </c>
       <c r="O7">
-        <v>7933543200</v>
+        <v>20919651000</v>
       </c>
       <c r="P7">
-        <v>4400788000</v>
+        <v>13997936000</v>
       </c>
       <c r="Q7">
-        <v>13608059.9</v>
+        <v>19983350.4</v>
       </c>
       <c r="R7">
-        <v>1598315030</v>
+        <v>5794093900</v>
       </c>
       <c r="S7">
-        <v>3704.0814</v>
+        <v>5280.8992</v>
       </c>
       <c r="T7">
-        <v>3396.0707</v>
+        <v>6948.5622</v>
       </c>
       <c r="U7">
-        <v>31058333.6</v>
+        <v>85599141</v>
       </c>
       <c r="V7">
-        <v>630686950</v>
+        <v>1875680800</v>
       </c>
       <c r="W7">
-        <v>1878.7759</v>
+        <v>2200.8722</v>
       </c>
       <c r="X7">
-        <v>676.4070400000001</v>
+        <v>818.2331399999999</v>
       </c>
       <c r="Y7">
-        <v>10227.3953</v>
+        <v>12359.516</v>
       </c>
       <c r="Z7">
-        <v>1014.39139</v>
+        <v>1356.7445</v>
       </c>
       <c r="AA7">
-        <v>1243.9716</v>
+        <v>1427.2043</v>
       </c>
       <c r="AB7">
-        <v>3049.9339</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC7">
-        <v>7119.0859</v>
+        <v>10648.0085</v>
       </c>
       <c r="AD7">
-        <v>1307.5561</v>
+        <v>1899.1925</v>
       </c>
       <c r="AE7">
-        <v>3305.3088</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF7">
-        <v>3368.3628</v>
+        <v>8316.108099999999</v>
       </c>
       <c r="AG7">
-        <v>861400190</v>
+        <v>2685968000</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1188,94 +1188,94 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>16750200000</v>
+        <v>61145912000</v>
       </c>
       <c r="E8">
-        <v>3.8653158176562E+59</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F8">
-        <v>228656.54</v>
+        <v>269990.34</v>
       </c>
       <c r="G8">
-        <v>2864.0123</v>
+        <v>9930.9758</v>
       </c>
       <c r="H8">
-        <v>456.6411800000001</v>
+        <v>593.82523</v>
       </c>
       <c r="I8">
-        <v>36.119855</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J8">
-        <v>941.9871600000002</v>
+        <v>1541.7957</v>
       </c>
       <c r="K8">
-        <v>466.06789</v>
+        <v>615.78365</v>
       </c>
       <c r="L8">
-        <v>15951.535</v>
+        <v>29738.254</v>
       </c>
       <c r="M8">
-        <v>10125.8483</v>
+        <v>11456.631</v>
       </c>
       <c r="N8">
-        <v>13086.1966</v>
+        <v>19678.417</v>
       </c>
       <c r="O8">
-        <v>6671259400</v>
+        <v>20919651000</v>
       </c>
       <c r="P8">
-        <v>3482021400</v>
+        <v>13997936000</v>
       </c>
       <c r="Q8">
-        <v>9775026.1</v>
+        <v>16543557.4</v>
       </c>
       <c r="R8">
-        <v>1193969060</v>
+        <v>5051471400</v>
       </c>
       <c r="S8">
-        <v>3632.5024</v>
+        <v>5258.225200000001</v>
       </c>
       <c r="T8">
-        <v>3013.0519</v>
+        <v>6330.7709</v>
       </c>
       <c r="U8">
-        <v>23213648.6</v>
+        <v>68670903</v>
       </c>
       <c r="V8">
-        <v>492415270</v>
+        <v>1677821600</v>
       </c>
       <c r="W8">
-        <v>1847.7255</v>
+        <v>2120.6168</v>
       </c>
       <c r="X8">
-        <v>649.92852</v>
+        <v>818.2331399999999</v>
       </c>
       <c r="Y8">
-        <v>9474.801699999998</v>
+        <v>12322.319</v>
       </c>
       <c r="Z8">
-        <v>995.5859</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA8">
-        <v>1193.6679</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB8">
-        <v>2766.0886</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC8">
-        <v>6771.470000000001</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD8">
-        <v>1261.3088</v>
+        <v>1864.7877</v>
       </c>
       <c r="AE8">
-        <v>3049.8826</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF8">
-        <v>3089.6785</v>
+        <v>7647.134899999999</v>
       </c>
       <c r="AG8">
-        <v>780097870</v>
+        <v>2574900700</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1289,94 +1289,94 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>15323478000</v>
+        <v>61145912000</v>
       </c>
       <c r="E9">
-        <v>1.0265532291152E+59</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F9">
-        <v>224622.58</v>
+        <v>260400.67</v>
       </c>
       <c r="G9">
-        <v>2485.4501</v>
+        <v>9930.9758</v>
       </c>
       <c r="H9">
-        <v>440.26365</v>
+        <v>593.82523</v>
       </c>
       <c r="I9">
-        <v>34.12332300000001</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J9">
-        <v>923.0630799999999</v>
+        <v>1541.7957</v>
       </c>
       <c r="K9">
-        <v>454.58907</v>
+        <v>615.78365</v>
       </c>
       <c r="L9">
-        <v>14223.88</v>
+        <v>29738.254</v>
       </c>
       <c r="M9">
-        <v>9930.1188</v>
+        <v>11456.631</v>
       </c>
       <c r="N9">
-        <v>11767.1602</v>
+        <v>19678.417</v>
       </c>
       <c r="O9">
-        <v>6385109000</v>
+        <v>20919651000</v>
       </c>
       <c r="P9">
-        <v>3401107800</v>
+        <v>13997936000</v>
       </c>
       <c r="Q9">
-        <v>9399516.800000001</v>
+        <v>16023187.4</v>
       </c>
       <c r="R9">
-        <v>1074604540</v>
+        <v>4482237100</v>
       </c>
       <c r="S9">
-        <v>3506.4387</v>
+        <v>5258.225200000001</v>
       </c>
       <c r="T9">
-        <v>2846.1738</v>
+        <v>6133.3549</v>
       </c>
       <c r="U9">
-        <v>22432974.6</v>
+        <v>62523282</v>
       </c>
       <c r="V9">
-        <v>402853290</v>
+        <v>1633511200</v>
       </c>
       <c r="W9">
-        <v>1749.1156</v>
+        <v>2077.9623</v>
       </c>
       <c r="X9">
-        <v>633.2399799999999</v>
+        <v>818.2331399999999</v>
       </c>
       <c r="Y9">
-        <v>8998.759399999999</v>
+        <v>12322.319</v>
       </c>
       <c r="Z9">
-        <v>975.9434600000001</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA9">
-        <v>1191.4812</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB9">
-        <v>2604.5171</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC9">
-        <v>6720.193799999999</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD9">
-        <v>1222.6879</v>
+        <v>1864.7877</v>
       </c>
       <c r="AE9">
-        <v>2856.8204</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF9">
-        <v>2976.262</v>
+        <v>7476.215200000001</v>
       </c>
       <c r="AG9">
-        <v>648986380</v>
+        <v>2572853100</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1390,94 +1390,94 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>14936071000</v>
+        <v>61145912000</v>
       </c>
       <c r="E10">
-        <v>1.0265473361152E+59</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F10">
-        <v>219402.75</v>
+        <v>250916.62</v>
       </c>
       <c r="G10">
-        <v>2363.1167</v>
+        <v>9930.9758</v>
       </c>
       <c r="H10">
-        <v>437.9432599999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I10">
-        <v>33.971495</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J10">
-        <v>892.6764899999998</v>
+        <v>1541.7957</v>
       </c>
       <c r="K10">
-        <v>452.0689600000001</v>
+        <v>615.78365</v>
       </c>
       <c r="L10">
-        <v>14223.88</v>
+        <v>29738.254</v>
       </c>
       <c r="M10">
-        <v>9842.774699999998</v>
+        <v>11456.631</v>
       </c>
       <c r="N10">
-        <v>11333.7264</v>
+        <v>19678.417</v>
       </c>
       <c r="O10">
-        <v>5975979800</v>
+        <v>20919651000</v>
       </c>
       <c r="P10">
-        <v>3266806800</v>
+        <v>13997936000</v>
       </c>
       <c r="Q10">
-        <v>7750361.1</v>
+        <v>12693989.2</v>
       </c>
       <c r="R10">
-        <v>1074604540</v>
+        <v>4336289800</v>
       </c>
       <c r="S10">
-        <v>3506.4387</v>
+        <v>5258.225200000001</v>
       </c>
       <c r="T10">
-        <v>2818.8254</v>
+        <v>5790.6688</v>
       </c>
       <c r="U10">
-        <v>19683819.6</v>
+        <v>54892517</v>
       </c>
       <c r="V10">
-        <v>326134610</v>
+        <v>1566283200</v>
       </c>
       <c r="W10">
-        <v>1711.8979</v>
+        <v>2048.4862</v>
       </c>
       <c r="X10">
-        <v>628.86798</v>
+        <v>818.2331399999999</v>
       </c>
       <c r="Y10">
-        <v>8998.759399999999</v>
+        <v>12322.319</v>
       </c>
       <c r="Z10">
-        <v>966.22801</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA10">
-        <v>1177.3194</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB10">
-        <v>2565.319500000001</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC10">
-        <v>6529.9022</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD10">
-        <v>1192.574</v>
+        <v>1864.7877</v>
       </c>
       <c r="AE10">
-        <v>2759.2448</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF10">
-        <v>2976.262</v>
+        <v>7290.9522</v>
       </c>
       <c r="AG10">
-        <v>615447820</v>
+        <v>2447675500</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1491,94 +1491,94 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>14772368000</v>
+        <v>61145912000</v>
       </c>
       <c r="E11">
-        <v>1.487077748952E+58</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F11">
-        <v>218449.83</v>
+        <v>249055.28</v>
       </c>
       <c r="G11">
-        <v>2334.0801</v>
+        <v>9930.9758</v>
       </c>
       <c r="H11">
-        <v>428.1992399999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I11">
-        <v>33.56767</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J11">
-        <v>889.6635699999999</v>
+        <v>1541.7957</v>
       </c>
       <c r="K11">
-        <v>444.4365300000001</v>
+        <v>612.35738</v>
       </c>
       <c r="L11">
-        <v>13738.381</v>
+        <v>29738.254</v>
       </c>
       <c r="M11">
-        <v>9839.287999999997</v>
+        <v>11456.631</v>
       </c>
       <c r="N11">
-        <v>10972.5744</v>
+        <v>18602.468</v>
       </c>
       <c r="O11">
-        <v>5638437500</v>
+        <v>20919651000</v>
       </c>
       <c r="P11">
-        <v>3009536400</v>
+        <v>13081171700</v>
       </c>
       <c r="Q11">
-        <v>6520589</v>
+        <v>10970356.8</v>
       </c>
       <c r="R11">
-        <v>986771960</v>
+        <v>4273458500</v>
       </c>
       <c r="S11">
-        <v>3417.7903</v>
+        <v>5236.8433</v>
       </c>
       <c r="T11">
-        <v>2795.4108</v>
+        <v>5353.360799999999</v>
       </c>
       <c r="U11">
-        <v>15939210.6</v>
+        <v>50878846</v>
       </c>
       <c r="V11">
-        <v>321087580</v>
+        <v>1566283200</v>
       </c>
       <c r="W11">
-        <v>1661.4036</v>
+        <v>2048.4862</v>
       </c>
       <c r="X11">
-        <v>628.86798</v>
+        <v>809.9901999999998</v>
       </c>
       <c r="Y11">
-        <v>8549.0936</v>
+        <v>12288.053</v>
       </c>
       <c r="Z11">
-        <v>959.6404699999999</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA11">
-        <v>1169.9418</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB11">
-        <v>2548.7952</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC11">
-        <v>6483.5699</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD11">
-        <v>1192.574</v>
+        <v>1860.9924</v>
       </c>
       <c r="AE11">
-        <v>2631.5938</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF11">
-        <v>2789.6895</v>
+        <v>7290.9522</v>
       </c>
       <c r="AG11">
-        <v>600403600</v>
+        <v>2383388300</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1592,94 +1592,94 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>14611277000</v>
+        <v>61145912000</v>
       </c>
       <c r="E12">
-        <v>1.435231648952E+58</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F12">
-        <v>209212.5</v>
+        <v>246831.59</v>
       </c>
       <c r="G12">
-        <v>2291.2976</v>
+        <v>9930.9758</v>
       </c>
       <c r="H12">
-        <v>427.0941599999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I12">
-        <v>33.20796</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J12">
-        <v>884.3367799999999</v>
+        <v>1541.7957</v>
       </c>
       <c r="K12">
-        <v>444.4365300000001</v>
+        <v>612.35738</v>
       </c>
       <c r="L12">
-        <v>13241.6022</v>
+        <v>29738.254</v>
       </c>
       <c r="M12">
-        <v>9794.3815</v>
+        <v>11456.631</v>
       </c>
       <c r="N12">
-        <v>10029.8819</v>
+        <v>17910.297</v>
       </c>
       <c r="O12">
-        <v>5541509900</v>
+        <v>20919651000</v>
       </c>
       <c r="P12">
-        <v>3009536400</v>
+        <v>12979604700</v>
       </c>
       <c r="Q12">
-        <v>6390698.9</v>
+        <v>9588891.699999999</v>
       </c>
       <c r="R12">
-        <v>899517700</v>
+        <v>4246522000</v>
       </c>
       <c r="S12">
-        <v>3398.9329</v>
+        <v>5236.8433</v>
       </c>
       <c r="T12">
-        <v>2787.1764</v>
+        <v>5353.360799999999</v>
       </c>
       <c r="U12">
-        <v>15509349.5</v>
+        <v>48366709</v>
       </c>
       <c r="V12">
-        <v>303266700</v>
+        <v>1380425730</v>
       </c>
       <c r="W12">
-        <v>1647.0796</v>
+        <v>1986.7296</v>
       </c>
       <c r="X12">
-        <v>628.86798</v>
+        <v>809.9901999999998</v>
       </c>
       <c r="Y12">
-        <v>7848.667600000001</v>
+        <v>12288.053</v>
       </c>
       <c r="Z12">
-        <v>958.72827</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA12">
-        <v>1167.6858</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB12">
-        <v>2419.2049</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC12">
-        <v>6483.5699</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD12">
-        <v>1190.994</v>
+        <v>1860.9924</v>
       </c>
       <c r="AE12">
-        <v>2556.1801</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF12">
-        <v>2789.6895</v>
+        <v>7290.9522</v>
       </c>
       <c r="AG12">
-        <v>596870150</v>
+        <v>2235737700</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1693,94 +1693,94 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>13875192000</v>
+        <v>61145912000</v>
       </c>
       <c r="E13">
-        <v>1.431806718452E+58</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F13">
-        <v>203752.21</v>
+        <v>246571.17</v>
       </c>
       <c r="G13">
-        <v>2257.2097</v>
+        <v>9930.9758</v>
       </c>
       <c r="H13">
-        <v>425.4489199999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I13">
-        <v>32.928598</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J13">
-        <v>881.0381899999999</v>
+        <v>1541.7957</v>
       </c>
       <c r="K13">
-        <v>440.1267800000001</v>
+        <v>612.35738</v>
       </c>
       <c r="L13">
-        <v>13150.6262</v>
+        <v>29738.254</v>
       </c>
       <c r="M13">
-        <v>9744.357599999999</v>
+        <v>11456.631</v>
       </c>
       <c r="N13">
-        <v>9656.146900000002</v>
+        <v>17910.297</v>
       </c>
       <c r="O13">
-        <v>5471683500</v>
+        <v>20919651000</v>
       </c>
       <c r="P13">
-        <v>2937579400</v>
+        <v>12979604700</v>
       </c>
       <c r="Q13">
-        <v>5906717.4</v>
+        <v>8488263.4</v>
       </c>
       <c r="R13">
-        <v>859863430</v>
+        <v>4056715700</v>
       </c>
       <c r="S13">
-        <v>3395.8407</v>
+        <v>5236.8433</v>
       </c>
       <c r="T13">
-        <v>2771.9357</v>
+        <v>4977.462799999999</v>
       </c>
       <c r="U13">
-        <v>14254549.5</v>
+        <v>43776278</v>
       </c>
       <c r="V13">
-        <v>282182480</v>
+        <v>1354432730</v>
       </c>
       <c r="W13">
-        <v>1614.919</v>
+        <v>1976.6166</v>
       </c>
       <c r="X13">
-        <v>622.9131600000001</v>
+        <v>809.9901999999998</v>
       </c>
       <c r="Y13">
-        <v>7659.169800000001</v>
+        <v>12288.053</v>
       </c>
       <c r="Z13">
-        <v>942.4605299999999</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA13">
-        <v>1151.6349</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB13">
-        <v>2303.7407</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC13">
-        <v>6467.4588</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD13">
-        <v>1178.215</v>
+        <v>1860.9924</v>
       </c>
       <c r="AE13">
-        <v>2504.3925</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF13">
-        <v>2768.2991</v>
+        <v>7290.9522</v>
       </c>
       <c r="AG13">
-        <v>575374620</v>
+        <v>2234437500</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1794,94 +1794,94 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>13372967000</v>
+        <v>61145912000</v>
       </c>
       <c r="E14">
-        <v>1.4317349836189E+58</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F14">
-        <v>202111.83</v>
+        <v>241360.77</v>
       </c>
       <c r="G14">
-        <v>2253.3387</v>
+        <v>9930.9758</v>
       </c>
       <c r="H14">
-        <v>422.0207399999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I14">
-        <v>32.845975</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J14">
-        <v>869.71545</v>
+        <v>1541.7957</v>
       </c>
       <c r="K14">
-        <v>435.9174800000001</v>
+        <v>612.35738</v>
       </c>
       <c r="L14">
-        <v>12934.3352</v>
+        <v>29738.254</v>
       </c>
       <c r="M14">
-        <v>9744.357599999999</v>
+        <v>11456.631</v>
       </c>
       <c r="N14">
-        <v>9425.960199999998</v>
+        <v>17774.972</v>
       </c>
       <c r="O14">
-        <v>5023509400</v>
+        <v>20919651000</v>
       </c>
       <c r="P14">
-        <v>2857445500</v>
+        <v>12729102500</v>
       </c>
       <c r="Q14">
-        <v>5170994.4</v>
+        <v>8488263.4</v>
       </c>
       <c r="R14">
-        <v>859863430</v>
+        <v>3886626200</v>
       </c>
       <c r="S14">
-        <v>3313.9736</v>
+        <v>5236.8433</v>
       </c>
       <c r="T14">
-        <v>2620.7237</v>
+        <v>4945.288499999999</v>
       </c>
       <c r="U14">
-        <v>13226813.5</v>
+        <v>43776278</v>
       </c>
       <c r="V14">
-        <v>273879520</v>
+        <v>1354432730</v>
       </c>
       <c r="W14">
-        <v>1614.919</v>
+        <v>1940.3312</v>
       </c>
       <c r="X14">
-        <v>620.7590299999999</v>
+        <v>809.9901999999998</v>
       </c>
       <c r="Y14">
-        <v>7659.169800000001</v>
+        <v>12288.053</v>
       </c>
       <c r="Z14">
-        <v>942.4605299999999</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA14">
-        <v>1150.8225</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB14">
-        <v>2231.308</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC14">
-        <v>6444.379999999999</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD14">
-        <v>1158.4856</v>
+        <v>1860.9924</v>
       </c>
       <c r="AE14">
-        <v>2499.3916</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF14">
-        <v>2747.3326</v>
+        <v>7290.9522</v>
       </c>
       <c r="AG14">
-        <v>470830850</v>
+        <v>2215424500</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1895,94 +1895,94 @@
         <v>50</v>
       </c>
       <c r="D15">
-        <v>13036617000</v>
+        <v>61145912000</v>
       </c>
       <c r="E15">
-        <v>9.581423993189001E+57</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F15">
-        <v>196975.4</v>
+        <v>241324.65</v>
       </c>
       <c r="G15">
-        <v>2253.3387</v>
+        <v>9930.9758</v>
       </c>
       <c r="H15">
-        <v>422.0207399999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I15">
-        <v>32.845975</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J15">
-        <v>869.71545</v>
+        <v>1541.7957</v>
       </c>
       <c r="K15">
-        <v>433.40081</v>
+        <v>612.35738</v>
       </c>
       <c r="L15">
-        <v>12575.9742</v>
+        <v>29738.254</v>
       </c>
       <c r="M15">
-        <v>9716.9229</v>
+        <v>11456.631</v>
       </c>
       <c r="N15">
-        <v>9425.960199999998</v>
+        <v>17774.972</v>
       </c>
       <c r="O15">
-        <v>5023509400</v>
+        <v>20919651000</v>
       </c>
       <c r="P15">
-        <v>2729088600</v>
+        <v>12127388800</v>
       </c>
       <c r="Q15">
-        <v>4836967.2</v>
+        <v>8488263.4</v>
       </c>
       <c r="R15">
-        <v>818663620</v>
+        <v>3622391100</v>
       </c>
       <c r="S15">
-        <v>3244.5736</v>
+        <v>5211.7791</v>
       </c>
       <c r="T15">
-        <v>2542.599</v>
+        <v>4889.886599999999</v>
       </c>
       <c r="U15">
-        <v>13226813.5</v>
+        <v>43776278</v>
       </c>
       <c r="V15">
-        <v>264643060</v>
+        <v>1354432730</v>
       </c>
       <c r="W15">
-        <v>1614.919</v>
+        <v>1940.3312</v>
       </c>
       <c r="X15">
-        <v>619.2424199999999</v>
+        <v>809.9901999999998</v>
       </c>
       <c r="Y15">
-        <v>7289.439000000001</v>
+        <v>12288.053</v>
       </c>
       <c r="Z15">
-        <v>941.8430999999998</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA15">
-        <v>1149.036</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB15">
-        <v>2196.6394</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC15">
-        <v>6403.5004</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD15">
-        <v>1157.6628</v>
+        <v>1860.9924</v>
       </c>
       <c r="AE15">
-        <v>2499.3916</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF15">
-        <v>2726.4204</v>
+        <v>7290.9522</v>
       </c>
       <c r="AG15">
-        <v>470830850</v>
+        <v>2215424500</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -1996,94 +1996,94 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>12951992000</v>
+        <v>61145912000</v>
       </c>
       <c r="E16">
-        <v>1.11457817189E+56</v>
+        <v>2.89304058146276E+69</v>
       </c>
       <c r="F16">
-        <v>196975.4</v>
+        <v>240766.42</v>
       </c>
       <c r="G16">
-        <v>2253.3387</v>
+        <v>9930.9758</v>
       </c>
       <c r="H16">
-        <v>421.9451099999999</v>
+        <v>593.82523</v>
       </c>
       <c r="I16">
-        <v>32.491218</v>
+        <v>64.50877599999998</v>
       </c>
       <c r="J16">
-        <v>869.71545</v>
+        <v>1541.7957</v>
       </c>
       <c r="K16">
-        <v>427.63894</v>
+        <v>612.35738</v>
       </c>
       <c r="L16">
-        <v>12090.7375</v>
+        <v>29738.254</v>
       </c>
       <c r="M16">
-        <v>9716.9229</v>
+        <v>11456.631</v>
       </c>
       <c r="N16">
-        <v>9197.314399999999</v>
+        <v>17505.647</v>
       </c>
       <c r="O16">
-        <v>5023509400</v>
+        <v>20919651000</v>
       </c>
       <c r="P16">
-        <v>2658446000</v>
+        <v>12127388800</v>
       </c>
       <c r="Q16">
-        <v>4836967.2</v>
+        <v>8327903.9</v>
       </c>
       <c r="R16">
-        <v>818663620</v>
+        <v>3427469300</v>
       </c>
       <c r="S16">
-        <v>3223.4627</v>
+        <v>5211.7791</v>
       </c>
       <c r="T16">
-        <v>2523.7625</v>
+        <v>4709.1667</v>
       </c>
       <c r="U16">
-        <v>12788347.5</v>
+        <v>42696014</v>
       </c>
       <c r="V16">
-        <v>255018520</v>
+        <v>1354432730</v>
       </c>
       <c r="W16">
-        <v>1614.919</v>
+        <v>1940.3312</v>
       </c>
       <c r="X16">
-        <v>619.2424199999999</v>
+        <v>809.9901999999998</v>
       </c>
       <c r="Y16">
-        <v>7289.439000000001</v>
+        <v>12288.053</v>
       </c>
       <c r="Z16">
-        <v>940.6580799999999</v>
+        <v>1348.5174</v>
       </c>
       <c r="AA16">
-        <v>1144.8597</v>
+        <v>1395.6037</v>
       </c>
       <c r="AB16">
-        <v>2140.0236</v>
+        <v>7556.6041</v>
       </c>
       <c r="AC16">
-        <v>6339.4238</v>
+        <v>10570.5535</v>
       </c>
       <c r="AD16">
-        <v>1157.4635</v>
+        <v>1860.9924</v>
       </c>
       <c r="AE16">
-        <v>2499.3916</v>
+        <v>5624.9212</v>
       </c>
       <c r="AF16">
-        <v>2703.0823</v>
+        <v>7290.9522</v>
       </c>
       <c r="AG16">
-        <v>413826150</v>
+        <v>2129872400</v>
       </c>
     </row>
   </sheetData>
